--- a/biology/Médecine/Biclotymol/Biclotymol.xlsx
+++ b/biology/Médecine/Biclotymol/Biclotymol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Biclotymol ou méthylène-2,2'bis(chloro-4 thymol) est une substance phénolique (à base d'acide phénique) ayant des propriétés :
-biocides (certaines) et selon certaines sources [2]
+biocides (certaines) et selon certaines sources 
 antalgique
 anti-inflammatoire...
-Cette substance active est pour cette raison utilisée comme antiseptique pour certaines affections ORL ; dans certains médicaments visant à traiter les infections de la bouche et de la gorge (uniquement les infections peu intenses et sans fièvre ou en présence d'aphtes ou de plaies de la bouche[2]).  
+Cette substance active est pour cette raison utilisée comme antiseptique pour certaines affections ORL ; dans certains médicaments visant à traiter les infections de la bouche et de la gorge (uniquement les infections peu intenses et sans fièvre ou en présence d'aphtes ou de plaies de la bouche).  
 Selon les médicaments, il peut être nébulisé ou pris sous forme de pastilles ou sirop, avec d'éventuels excipients (glucose, saccharose, jaune orangé S, parfums, lécithine de soja, etc.).
 Ce médicament n'est pas conseillé aux très jeunes enfants (sous forme de spray). Son utilisation peut déséquilibrer la microflore naturelle de la bouche et de la sphère ORL.
 Le traitement ne doit pas dépasser 5 jours et être accompagné d'un suivi de la température. 
@@ -521,9 +533,11 @@
           <t>Autres principes d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette molécule comprend une partie hydrophile et une partie lipophile, ce qui lui permet de perturber la perméabilité sélective des membranes cellulaires[3]. C'est aussi un « poison protoplasmique » qui inactive certaines enzymes et dénature certaines protéines (en donnant des protéinates insolubles) [3]. La position des atomes de chlore dans la molécule renforce encore l'effet antiseptique de celle-ci [3]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette molécule comprend une partie hydrophile et une partie lipophile, ce qui lui permet de perturber la perméabilité sélective des membranes cellulaires. C'est aussi un « poison protoplasmique » qui inactive certaines enzymes et dénature certaines protéines (en donnant des protéinates insolubles) . La position des atomes de chlore dans la molécule renforce encore l'effet antiseptique de celle-ci . 
 </t>
         </is>
       </c>
@@ -552,9 +566,11 @@
           <t>Médicaments intégrant cette molécule</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon le Vidal (consulté 2009 08 10[4] pour plus de précisions et mises à jour voir le site du VIDAL), on le trouve dans les médicaments suivants :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon le Vidal (consulté 2009 08 10 pour plus de précisions et mises à jour voir le site du VIDAL), on le trouve dans les médicaments suivants :
 Hexalyse
 Hexapneumine (sirop Adulte et Enfant)
 Hexapneumine (sirop Nourrisson)
